--- a/02 测试/北京丽泽功能_集成测试20180130.xlsx
+++ b/02 测试/北京丽泽功能_集成测试20180130.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20088\Documents\YDWL\丽泽\02 测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\YDWL\丽泽\02 测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">问题清单!$B$1:$L$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求跟踪!$B$1:$N$24</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -5750,12 +5750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:JA60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
@@ -6328,7 +6327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="112" hidden="1">
+    <row r="15" spans="1:15" ht="112">
       <c r="B15" s="52">
         <v>14</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="42" hidden="1">
+    <row r="16" spans="1:15" ht="42">
       <c r="B16" s="52">
         <v>15</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="28" hidden="1">
+    <row r="17" spans="2:14" ht="28">
       <c r="B17" s="52">
         <v>16</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="42" hidden="1">
+    <row r="18" spans="2:14" ht="42">
       <c r="B18" s="52">
         <v>17</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="28" hidden="1">
+    <row r="19" spans="2:14" ht="28">
       <c r="B19" s="52">
         <v>18</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="70" hidden="1">
+    <row r="20" spans="2:14" ht="70">
       <c r="B20" s="52">
         <v>19</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="56" hidden="1">
+    <row r="21" spans="2:14" ht="56">
       <c r="B21" s="52">
         <v>20</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="70" hidden="1">
+    <row r="22" spans="2:14" ht="70">
       <c r="B22" s="52">
         <v>21</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="56" hidden="1">
+    <row r="23" spans="2:14" ht="56">
       <c r="B23" s="52">
         <v>22</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="70" hidden="1">
+    <row r="24" spans="2:14" ht="70">
       <c r="B24" s="52">
         <v>23</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="70" hidden="1">
+    <row r="25" spans="2:14" ht="70">
       <c r="B25" s="52">
         <v>24</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="42" hidden="1">
+    <row r="26" spans="2:14" ht="42">
       <c r="B26" s="52">
         <v>25</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="28" hidden="1">
+    <row r="27" spans="2:14" ht="28">
       <c r="B27" s="52">
         <v>26</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="42" hidden="1">
+    <row r="28" spans="2:14" ht="42">
       <c r="B28" s="52">
         <v>27</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="42" hidden="1">
+    <row r="29" spans="2:14" ht="42">
       <c r="B29" s="52">
         <v>28</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="14" customHeight="1">
+    <row r="30" spans="2:14">
       <c r="B30" s="52">
         <v>29</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="14" customHeight="1">
+    <row r="31" spans="2:14" ht="28">
       <c r="B31" s="52">
         <v>30</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="14" customHeight="1">
+    <row r="32" spans="2:14" ht="28">
       <c r="B32" s="52">
         <v>31</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="14" customHeight="1">
+    <row r="33" spans="2:14">
       <c r="B33" s="52">
         <v>32</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="14" customHeight="1">
+    <row r="34" spans="2:14">
       <c r="B34" s="52">
         <v>33</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="14" customHeight="1">
+    <row r="35" spans="2:14">
       <c r="B35" s="52">
         <v>34</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="36" spans="2:14" ht="28">
       <c r="B36" s="52">
         <v>35</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="37" spans="2:14" ht="28">
       <c r="B37" s="52">
         <v>36</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="38" spans="2:14" ht="140">
       <c r="B38" s="52">
         <v>37</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="39" spans="2:14" ht="140">
       <c r="B39" s="52">
         <v>38</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="40" spans="2:14" ht="140">
       <c r="B40" s="52">
         <v>39</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="41" spans="2:14" ht="56">
       <c r="B41" s="52">
         <v>40</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="42" spans="2:14" ht="56">
       <c r="B42" s="52">
         <v>41</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="43" spans="2:14" ht="56">
       <c r="B43" s="52">
         <v>42</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="44" spans="2:14" ht="56">
       <c r="B44" s="52">
         <v>43</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="14" hidden="1" customHeight="1">
+    <row r="45" spans="2:14" ht="56">
       <c r="B45" s="52">
         <v>44</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="14" customHeight="1">
+    <row r="46" spans="2:14" ht="70">
       <c r="B46" s="52">
         <v>45</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="14" customHeight="1">
+    <row r="47" spans="2:14" ht="140">
       <c r="B47" s="52">
         <v>46</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="14" customHeight="1">
+    <row r="48" spans="2:14" ht="28">
       <c r="B48" s="52">
         <v>47</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="14" customHeight="1">
+    <row r="49" spans="2:14" ht="28">
       <c r="B49" s="52">
         <v>48</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="14" customHeight="1">
+    <row r="50" spans="2:14" ht="42">
       <c r="B50" s="52">
         <v>49</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="14" customHeight="1">
+    <row r="51" spans="2:14">
       <c r="B51" s="52">
         <v>50</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="14" customHeight="1">
+    <row r="52" spans="2:14">
       <c r="B52" s="52">
         <v>51</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="14" customHeight="1">
+    <row r="53" spans="2:14" ht="28">
       <c r="B53" s="52">
         <v>52</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="14" customHeight="1">
+    <row r="54" spans="2:14" ht="28">
       <c r="B54" s="52">
         <v>53</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="14" customHeight="1">
+    <row r="55" spans="2:14" ht="42">
       <c r="B55" s="52">
         <v>54</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="70" hidden="1">
+    <row r="56" spans="2:14" ht="70">
       <c r="B56" s="52">
         <v>55</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="14" customHeight="1">
+    <row r="57" spans="2:14">
       <c r="B57" s="52">
         <v>56</v>
       </c>
@@ -8106,15 +8105,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N60">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="（九）服务商"/>
-        <filter val="（四）园区一卡通"/>
-        <filter val="（一）基础功能"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:N60"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
